--- a/spec/fixtures/files/models/import/change_instructions/import_input_1.xlsx
+++ b/spec/fixtures/files/models/import/change_instructions/import_input_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/change_instructions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6314CE63-0FEE-8440-942D-6BFE42117EFF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3823B7-AF22-EE4B-8269-AB23E5EA95CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="460" windowWidth="37040" windowHeight="19600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38520" yWindow="460" windowWidth="25600" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDTM Terminology Changes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Release Date</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>C135378</t>
   </si>
 </sst>
 </file>
@@ -622,9 +625,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -775,9 +778,8 @@
       <c r="M3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="8" t="str">
-        <f>D3</f>
-        <v>C130056</v>
+      <c r="N3" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>35</v>
